--- a/database/2018-mens-world-cup.xlsx
+++ b/database/2018-mens-world-cup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruceoberg/code/soccer-tourney-poster/tournaments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruceoberg/code/soccer-tourney-poster/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990D1D99-64D8-3F4F-96FB-3046410F3575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C91DCC-9AE0-8F48-8472-9E21350E20FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3280" yWindow="3280" windowWidth="19200" windowHeight="10080" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="19280" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tournament" sheetId="8" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="195">
   <si>
     <t>A1</t>
   </si>
@@ -440,39 +440,6 @@
     <t>2018 Schema &amp; scorekaart</t>
   </si>
   <si>
-    <r>
-      <t>2018</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>W</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-      </rPr>
-      <t>杯スケジュールとスコアカード</t>
-    </r>
-  </si>
-  <si>
     <t>جام جهانی 2018 برنامه و کارت امتیاز</t>
   </si>
   <si>
@@ -615,6 +582,48 @@
   </si>
   <si>
     <t>Europe/Moscow</t>
+  </si>
+  <si>
+    <t>Copa del Mundo 2018 en Rusia</t>
+  </si>
+  <si>
+    <t>Coppa del Mondo 2018 in Russia</t>
+  </si>
+  <si>
+    <t>Coupe du monde 2018 en Russie</t>
+  </si>
+  <si>
+    <t>Fußball-Weltmeisterschaft 2018 in Russland</t>
+  </si>
+  <si>
+    <t>Wereldkampioenschap voetbal 2018 in Rusland</t>
+  </si>
+  <si>
+    <t>جام جهانی ۲۰۱۸ روسیه</t>
+  </si>
+  <si>
+    <t>Rusia</t>
+  </si>
+  <si>
+    <t>Russie</t>
+  </si>
+  <si>
+    <t>Russland</t>
+  </si>
+  <si>
+    <t>Rusland</t>
+  </si>
+  <si>
+    <t>ロシア</t>
+  </si>
+  <si>
+    <t>روسیه</t>
+  </si>
+  <si>
+    <t>2018W杯 日程・スコア</t>
+  </si>
+  <si>
+    <t>2018ロシアW杯</t>
   </si>
 </sst>
 </file>
@@ -636,10 +645,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="MS Gothic"/>
-      <family val="3"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -662,9 +671,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1078,7 +1088,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1130,6 +1140,27 @@
       <c r="B2" t="s">
         <v>125</v>
       </c>
+      <c r="C2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="I2" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1153,11 +1184,11 @@
       <c r="G3" t="s">
         <v>132</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="I3" t="s">
         <v>133</v>
-      </c>
-      <c r="I3" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1167,13 +1198,34 @@
       <c r="B4" t="s">
         <v>127</v>
       </c>
+      <c r="C4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F4" t="s">
+        <v>189</v>
+      </c>
+      <c r="G4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I4" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" t="s">
         <v>180</v>
-      </c>
-      <c r="B5" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -1181,7 +1233,7 @@
         <v>100</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1189,7 +1241,7 @@
         <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1197,7 +1249,7 @@
         <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1205,7 +1257,7 @@
         <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1213,7 +1265,7 @@
         <v>104</v>
       </c>
       <c r="B10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1221,7 +1273,7 @@
         <v>105</v>
       </c>
       <c r="B11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1229,7 +1281,7 @@
         <v>106</v>
       </c>
       <c r="B12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1237,39 +1289,39 @@
         <v>107</v>
       </c>
       <c r="B13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1305,10 +1357,10 @@
         <v>62</v>
       </c>
       <c r="B1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" t="s">
         <v>153</v>
-      </c>
-      <c r="C1" t="s">
-        <v>154</v>
       </c>
       <c r="D1" t="s">
         <v>63</v>
@@ -1317,10 +1369,10 @@
         <v>64</v>
       </c>
       <c r="F1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" t="s">
         <v>151</v>
-      </c>
-      <c r="G1" t="s">
-        <v>152</v>
       </c>
       <c r="H1" t="s">
         <v>110</v>
@@ -3549,95 +3601,95 @@
         <v>108</v>
       </c>
       <c r="J1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" t="s">
         <v>156</v>
       </c>
-      <c r="B2" t="s">
+      <c r="J2" t="s">
         <v>157</v>
-      </c>
-      <c r="J2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" t="s">
         <v>159</v>
       </c>
-      <c r="B3" t="s">
+      <c r="J3" t="s">
         <v>160</v>
-      </c>
-      <c r="J3" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" t="s">
         <v>162</v>
       </c>
-      <c r="B4" t="s">
+      <c r="J4" t="s">
         <v>163</v>
-      </c>
-      <c r="J4" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" t="s">
         <v>165</v>
       </c>
-      <c r="B5" t="s">
+      <c r="J5" t="s">
         <v>166</v>
-      </c>
-      <c r="J5" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" t="s">
         <v>168</v>
       </c>
-      <c r="B6" t="s">
+      <c r="J6" t="s">
         <v>169</v>
-      </c>
-      <c r="J6" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7" t="s">
         <v>171</v>
       </c>
-      <c r="B7" t="s">
+      <c r="J7" t="s">
         <v>172</v>
-      </c>
-      <c r="J7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B8" t="s">
         <v>174</v>
       </c>
-      <c r="B8" t="s">
+      <c r="J8" t="s">
         <v>175</v>
-      </c>
-      <c r="J8" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" t="s">
         <v>177</v>
       </c>
-      <c r="B9" t="s">
+      <c r="J9" t="s">
         <v>178</v>
-      </c>
-      <c r="J9" t="s">
-        <v>179</v>
       </c>
     </row>
   </sheetData>
